--- a/lin_R1_by_R2 (1 by 1.1)100.xlsx
+++ b/lin_R1_by_R2 (1 by 1.1)100.xlsx
@@ -224,6 +224,86 @@
         <v>-0.07731507002615914</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>255.73511462376163</v>
+      </c>
+      <c r="B3" t="n">
+        <v>321.95143448794767</v>
+      </c>
+      <c r="C3" t="n">
+        <v>405.3128422404624</v>
+      </c>
+      <c r="D3" t="n">
+        <v>510.2586368230384</v>
+      </c>
+      <c r="E3" t="n">
+        <v>642.377564483974</v>
+      </c>
+      <c r="F3" t="n">
+        <v>808.7054398953212</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1018.0998289404004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1281.7117463963648</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1613.5794881334648</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2031.3762215610436</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2557.3511462376164</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3219.5143448794765</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4053.1284224046235</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5102.586368230384</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6423.77564483974</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8087.054398953212</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10180.998289404004</v>
+      </c>
+      <c r="R3" t="n">
+        <v>12817.117463963647</v>
+      </c>
+      <c r="S3" t="n">
+        <v>16135.794881334647</v>
+      </c>
+      <c r="T3" t="n">
+        <v>20313.762215610437</v>
+      </c>
+      <c r="U3" t="n">
+        <v>25573.511462376162</v>
+      </c>
+      <c r="V3" t="n">
+        <v>32195.143448794766</v>
+      </c>
+      <c r="W3" t="n">
+        <v>40531.284224046234</v>
+      </c>
+      <c r="X3" t="n">
+        <v>51025.86368230384</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>64237.756448397406</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>80870.54398953212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -397,6 +477,86 @@
         <v>-0.07731557257012274</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>255.73511462376163</v>
+      </c>
+      <c r="B3" t="n">
+        <v>321.95143448794767</v>
+      </c>
+      <c r="C3" t="n">
+        <v>405.3128422404624</v>
+      </c>
+      <c r="D3" t="n">
+        <v>510.2586368230384</v>
+      </c>
+      <c r="E3" t="n">
+        <v>642.377564483974</v>
+      </c>
+      <c r="F3" t="n">
+        <v>808.7054398953212</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1018.0998289404004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1281.7117463963648</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1613.5794881334648</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2031.3762215610436</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2557.3511462376164</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3219.5143448794765</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4053.1284224046235</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5102.586368230384</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6423.77564483974</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8087.054398953212</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10180.998289404004</v>
+      </c>
+      <c r="R3" t="n">
+        <v>12817.117463963647</v>
+      </c>
+      <c r="S3" t="n">
+        <v>16135.794881334647</v>
+      </c>
+      <c r="T3" t="n">
+        <v>20313.762215610437</v>
+      </c>
+      <c r="U3" t="n">
+        <v>25573.511462376162</v>
+      </c>
+      <c r="V3" t="n">
+        <v>32195.143448794766</v>
+      </c>
+      <c r="W3" t="n">
+        <v>40531.284224046234</v>
+      </c>
+      <c r="X3" t="n">
+        <v>51025.86368230384</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>64237.756448397406</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>80870.54398953212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -570,6 +730,86 @@
         <v>-0.07731564436681379</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>255.73511462376163</v>
+      </c>
+      <c r="B3" t="n">
+        <v>321.95143448794767</v>
+      </c>
+      <c r="C3" t="n">
+        <v>405.3128422404624</v>
+      </c>
+      <c r="D3" t="n">
+        <v>510.2586368230384</v>
+      </c>
+      <c r="E3" t="n">
+        <v>642.377564483974</v>
+      </c>
+      <c r="F3" t="n">
+        <v>808.7054398953212</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1018.0998289404004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1281.7117463963648</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1613.5794881334648</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2031.3762215610436</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2557.3511462376164</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3219.5143448794765</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4053.1284224046235</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5102.586368230384</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6423.77564483974</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8087.054398953212</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10180.998289404004</v>
+      </c>
+      <c r="R3" t="n">
+        <v>12817.117463963647</v>
+      </c>
+      <c r="S3" t="n">
+        <v>16135.794881334647</v>
+      </c>
+      <c r="T3" t="n">
+        <v>20313.762215610437</v>
+      </c>
+      <c r="U3" t="n">
+        <v>25573.511462376162</v>
+      </c>
+      <c r="V3" t="n">
+        <v>32195.143448794766</v>
+      </c>
+      <c r="W3" t="n">
+        <v>40531.284224046234</v>
+      </c>
+      <c r="X3" t="n">
+        <v>51025.86368230384</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>64237.756448397406</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>80870.54398953212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -743,6 +983,86 @@
         <v>-0.07731506998929139</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>255.73511462376163</v>
+      </c>
+      <c r="B3" t="n">
+        <v>321.95143448794767</v>
+      </c>
+      <c r="C3" t="n">
+        <v>405.3128422404624</v>
+      </c>
+      <c r="D3" t="n">
+        <v>510.2586368230384</v>
+      </c>
+      <c r="E3" t="n">
+        <v>642.377564483974</v>
+      </c>
+      <c r="F3" t="n">
+        <v>808.7054398953212</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1018.0998289404004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1281.7117463963648</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1613.5794881334648</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2031.3762215610436</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2557.3511462376164</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3219.5143448794765</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4053.1284224046235</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5102.586368230384</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6423.77564483974</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8087.054398953212</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10180.998289404004</v>
+      </c>
+      <c r="R3" t="n">
+        <v>12817.117463963647</v>
+      </c>
+      <c r="S3" t="n">
+        <v>16135.794881334647</v>
+      </c>
+      <c r="T3" t="n">
+        <v>20313.762215610437</v>
+      </c>
+      <c r="U3" t="n">
+        <v>25573.511462376162</v>
+      </c>
+      <c r="V3" t="n">
+        <v>32195.143448794766</v>
+      </c>
+      <c r="W3" t="n">
+        <v>40531.284224046234</v>
+      </c>
+      <c r="X3" t="n">
+        <v>51025.86368230384</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>64237.756448397406</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>80870.54398953212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lin_R1_by_R2 (1 by 1.1)100.xlsx
+++ b/lin_R1_by_R2 (1 by 1.1)100.xlsx
@@ -66,73 +66,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.6780022058509281</v>
+        <v>0.6620618913957012</v>
       </c>
       <c r="B1" t="n">
-        <v>0.6749449206332134</v>
+        <v>0.6505673495254968</v>
       </c>
       <c r="C1" t="n">
-        <v>0.670188598991765</v>
+        <v>0.6336135807193332</v>
       </c>
       <c r="D1" t="n">
-        <v>0.6628661644921515</v>
+        <v>0.6095049878329413</v>
       </c>
       <c r="E1" t="n">
-        <v>0.6517727810811167</v>
+        <v>0.5769327542589086</v>
       </c>
       <c r="F1" t="n">
-        <v>0.6353678530970254</v>
+        <v>0.5358048986675225</v>
       </c>
       <c r="G1" t="n">
-        <v>0.6119518407118303</v>
+        <v>0.48799691298240233</v>
       </c>
       <c r="H1" t="n">
-        <v>0.580151876281024</v>
+        <v>0.43727108711568413</v>
       </c>
       <c r="I1" t="n">
-        <v>0.539732934959974</v>
+        <v>0.38798306024481477</v>
       </c>
       <c r="J1" t="n">
-        <v>0.4923833193455279</v>
+        <v>0.34333198380109325</v>
       </c>
       <c r="K1" t="n">
-        <v>0.4417352626598574</v>
+        <v>0.3044613370309847</v>
       </c>
       <c r="L1" t="n">
-        <v>0.3921653915926525</v>
+        <v>0.2708645955813398</v>
       </c>
       <c r="M1" t="n">
-        <v>0.3470301521461377</v>
+        <v>0.24143427837525736</v>
       </c>
       <c r="N1" t="n">
-        <v>0.3076542110905036</v>
+        <v>0.21527256557307695</v>
       </c>
       <c r="O1" t="n">
-        <v>0.2736365286776278</v>
+        <v>0.19189161660829765</v>
       </c>
       <c r="P1" t="n">
-        <v>0.24388193934796926</v>
+        <v>0.1710205371740332</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.21745742401510054</v>
+        <v>0.1524188242315106</v>
       </c>
       <c r="R1" t="n">
-        <v>0.19384414419401688</v>
+        <v>0.13584287440494258</v>
       </c>
       <c r="S1" t="n">
-        <v>0.17276177545261112</v>
+        <v>0.12106984180312017</v>
       </c>
       <c r="T1" t="n">
-        <v>0.15397035056268876</v>
+        <v>0.1079033577223928</v>
       </c>
       <c r="U1" t="n">
-        <v>0.13722555926923208</v>
+        <v>0.09616879188342457</v>
       </c>
       <c r="V1" t="n">
-        <v>0.12230216686937166</v>
+        <v>0.08571040133391432</v>
       </c>
       <c r="W1" t="n">
-        <v>0.10900166302958687</v>
+        <v>0.07638938704469996</v>
       </c>
       <c r="X1" t="n">
         <v>0.09714765162731742</v>
@@ -146,73 +146,73 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.933257266271067</v>
+        <v>-1.0234711234280387</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.558545024927514</v>
+        <v>-0.8555195968527618</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.2663316119505097</v>
+        <v>-0.7296483028755227</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.0405945373984902</v>
+        <v>-0.636591894870739</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.8684631478757319</v>
+        <v>-0.5676298620093382</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.7392744832936022</v>
+        <v>-0.5143686497408237</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.6436858647181021</v>
+        <v>-0.4693333165984294</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5729473894386711</v>
+        <v>-0.42720110496445346</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5186259376135324</v>
+        <v>-0.385710186130767</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.4731209416283362</v>
+        <v>-0.34525649242465384</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.4308703116592331</v>
+        <v>-0.3073660059367325</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.38933699209551165</v>
+        <v>-0.27321136084862335</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.34873507593319214</v>
+        <v>-0.24303313631056625</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.310559835644633</v>
+        <v>-0.21641008823183536</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.27605348916321615</v>
+        <v>-0.19278439851889184</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.24553661083437225</v>
+        <v>-0.1717416084729174</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.21862426424258918</v>
+        <v>-0.1529948024528272</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.19475409913957048</v>
+        <v>-0.13630040651672826</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.17349676929559388</v>
+        <v>-0.12143351332104978</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.15455805478310122</v>
+        <v>-0.10819248412755557</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.1376924475577637</v>
+        <v>-0.09639861998428484</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.12267324925770406</v>
+        <v>-0.0858930785698061</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.10929668452746932</v>
+        <v>-0.07653457669386723</v>
       </c>
       <c r="X2" t="n">
         <v>-0.09738216795609927</v>
@@ -226,73 +226,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>255.73511462376163</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>321.95143448794767</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>405.3128422404624</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>510.2586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>642.377564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>808.7054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>1018.0998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>1281.7117463963648</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>1613.5794881334648</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>2031.3762215610436</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>2557.3511462376164</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>3219.5143448794765</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>4053.1284224046235</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>5102.586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>6423.77564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>8087.054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>10180.998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>12817.117463963647</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>16135.794881334647</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>20313.762215610437</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>25573.511462376162</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>32195.143448794766</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>40531.284224046234</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -319,73 +319,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.6781177427869174</v>
+        <v>0.6623590192316213</v>
       </c>
       <c r="B1" t="n">
-        <v>0.6751104623999545</v>
+        <v>0.6509192319999827</v>
       </c>
       <c r="C1" t="n">
-        <v>0.6704150840501242</v>
+        <v>0.6339931624961225</v>
       </c>
       <c r="D1" t="n">
-        <v>0.6631577560182166</v>
+        <v>0.6098708480174148</v>
       </c>
       <c r="E1" t="n">
-        <v>0.6521206842015129</v>
+        <v>0.5772383443395773</v>
       </c>
       <c r="F1" t="n">
-        <v>0.6357464968773253</v>
+        <v>0.5360124810905272</v>
       </c>
       <c r="G1" t="n">
-        <v>0.6123207885581543</v>
+        <v>0.4880915018094468</v>
       </c>
       <c r="H1" t="n">
-        <v>0.5804645156041189</v>
+        <v>0.4372672983703952</v>
       </c>
       <c r="I1" t="n">
-        <v>0.5399501494814473</v>
+        <v>0.38791918638959527</v>
       </c>
       <c r="J1" t="n">
-        <v>0.4924876911402227</v>
+        <v>0.34325283733531775</v>
       </c>
       <c r="K1" t="n">
-        <v>0.44173883961903987</v>
+        <v>0.30439914638455035</v>
       </c>
       <c r="L1" t="n">
-        <v>0.3921049561259928</v>
+        <v>0.27082920312469844</v>
       </c>
       <c r="M1" t="n">
-        <v>0.3469507643978317</v>
+        <v>0.24141807102015836</v>
       </c>
       <c r="N1" t="n">
-        <v>0.3075898007813824</v>
+        <v>0.2152640868279261</v>
       </c>
       <c r="O1" t="n">
-        <v>0.27359891772215184</v>
+        <v>0.19188500509881268</v>
       </c>
       <c r="P1" t="n">
-        <v>0.2438645424327569</v>
+        <v>0.17101512891295342</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.21744860442609917</v>
+        <v>0.1524149236084238</v>
       </c>
       <c r="R1" t="n">
-        <v>0.19383743914305754</v>
+        <v>0.13584016894324524</v>
       </c>
       <c r="S1" t="n">
-        <v>0.17275624137643358</v>
+        <v>0.12106792742278914</v>
       </c>
       <c r="T1" t="n">
-        <v>0.15396632310169295</v>
+        <v>0.10790199796032976</v>
       </c>
       <c r="U1" t="n">
-        <v>0.13722276743263978</v>
+        <v>0.09616782834199232</v>
       </c>
       <c r="V1" t="n">
-        <v>0.1223001942381188</v>
+        <v>0.08570971850715113</v>
       </c>
       <c r="W1" t="n">
-        <v>0.10900026151916495</v>
+        <v>0.07638890319222803</v>
       </c>
       <c r="X1" t="n">
         <v>0.09714665844263781</v>
@@ -399,73 +399,73 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.9330938342103703</v>
+        <v>-1.0233373967651596</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.558370926755605</v>
+        <v>-0.855449225798465</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.2661631912440947</v>
+        <v>-0.7296678425017353</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.0404567062546546</v>
+        <v>-0.6367137814115413</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.8683860129944156</v>
+        <v>-0.5678442417357275</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.7392853401406704</v>
+        <v>-0.5146417101552989</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.6437987838659354</v>
+        <v>-0.4696150418526109</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5731546652934835</v>
+        <v>-0.4274417313307885</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5188957017470922</v>
+        <v>-0.3858784637437676</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.47340404069773956</v>
+        <v>-0.34534956214843604</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.43111618232449567</v>
+        <v>-0.30740485274222584</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.3895121735638004</v>
+        <v>-0.2732247737632131</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.34883417622175245</v>
+        <v>-0.24304125762503948</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.31060227790246636</v>
+        <v>-0.21641902122927997</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.2760681256213468</v>
+        <v>-0.19279252669734578</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.24554476939082434</v>
+        <v>-0.1717474005880281</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.2186331452698053</v>
+        <v>-0.15299867873678816</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.19476239259274591</v>
+        <v>-0.13630312846755066</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.17350276880009927</v>
+        <v>-0.1214354546341068</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.15456206384983048</v>
+        <v>-0.10819385841617297</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.1376952514980379</v>
+        <v>-0.09639959259119091</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.12267524987293722</v>
+        <v>-0.08589376718224656</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.10929810133246477</v>
+        <v>-0.0765350642003289</v>
       </c>
       <c r="X2" t="n">
         <v>-0.09738317055654763</v>
@@ -479,73 +479,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>255.73511462376163</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>321.95143448794767</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>405.3128422404624</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>510.2586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>642.377564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>808.7054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>1018.0998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>1281.7117463963648</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>1613.5794881334648</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>2031.3762215610436</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>2557.3511462376164</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>3219.5143448794765</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>4053.1284224046235</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>5102.586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>6423.77564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>8087.054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>10180.998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>12817.117463963647</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>16135.794881334647</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>20313.762215610437</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>25573.511462376162</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>32195.143448794766</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>40531.284224046234</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -572,73 +572,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.678648349750493</v>
+        <v>0.6626288086576543</v>
       </c>
       <c r="B1" t="n">
-        <v>0.6755772060991057</v>
+        <v>0.6510734439389467</v>
       </c>
       <c r="C1" t="n">
-        <v>0.6707976322269279</v>
+        <v>0.6340323270509793</v>
       </c>
       <c r="D1" t="n">
-        <v>0.6634373187506544</v>
+        <v>0.6098092396211247</v>
       </c>
       <c r="E1" t="n">
-        <v>0.652285233675539</v>
+        <v>0.577103874047235</v>
       </c>
       <c r="F1" t="n">
-        <v>0.6357954123359466</v>
+        <v>0.5358447092372468</v>
       </c>
       <c r="G1" t="n">
-        <v>0.6122671164893987</v>
+        <v>0.4879350081995176</v>
       </c>
       <c r="H1" t="n">
-        <v>0.5803350105633616</v>
+        <v>0.437157928104427</v>
       </c>
       <c r="I1" t="n">
-        <v>0.5397835156606032</v>
+        <v>0.38786915194091204</v>
       </c>
       <c r="J1" t="n">
-        <v>0.49232852279190525</v>
+        <v>0.3432476885928162</v>
       </c>
       <c r="K1" t="n">
-        <v>0.44162441785427736</v>
+        <v>0.30441159057868933</v>
       </c>
       <c r="L1" t="n">
-        <v>0.39204994814950717</v>
+        <v>0.27083854381464134</v>
       </c>
       <c r="M1" t="n">
-        <v>0.34694271985125935</v>
+        <v>0.24141914015920812</v>
       </c>
       <c r="N1" t="n">
-        <v>0.30760173332593455</v>
+        <v>0.21526146312992592</v>
       </c>
       <c r="O1" t="n">
-        <v>0.2736089587494752</v>
+        <v>0.19188298181448402</v>
       </c>
       <c r="P1" t="n">
-        <v>0.24386621899851035</v>
+        <v>0.17101426770488343</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.2174460792975614</v>
+        <v>0.15241444048829866</v>
       </c>
       <c r="R1" t="n">
-        <v>0.19383529576801392</v>
+        <v>0.1358397806094057</v>
       </c>
       <c r="S1" t="n">
-        <v>0.1727553107394952</v>
+        <v>0.12106764500369646</v>
       </c>
       <c r="T1" t="n">
-        <v>0.1539658270711488</v>
+        <v>0.10790180079017041</v>
       </c>
       <c r="U1" t="n">
-        <v>0.13722237068448534</v>
+        <v>0.09616768873484165</v>
       </c>
       <c r="V1" t="n">
-        <v>0.12229990273449129</v>
+        <v>0.08570961969833706</v>
       </c>
       <c r="W1" t="n">
-        <v>0.10900005817275028</v>
+        <v>0.07638883327738855</v>
       </c>
       <c r="X1" t="n">
         <v>0.0971465145407068</v>
@@ -652,73 +652,73 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.933415811696211</v>
+        <v>-1.0237835606582266</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.5587445498222834</v>
+        <v>-0.8558937727680557</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.266580939700664</v>
+        <v>-0.7300786614783399</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.0409016158317945</v>
+        <v>-0.6370589322823526</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.8688319491115066</v>
+        <v>-0.5680977299025978</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.7397004493532413</v>
+        <v>-0.5147901248561663</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.6441508817659066</v>
+        <v>-0.46966501758118157</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5734169902367282</v>
+        <v>-0.4274227140838451</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5190534300426424</v>
+        <v>-0.38583304966735493</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.47346180164800633</v>
+        <v>-0.3453136106924788</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.43110159204313864</v>
+        <v>-0.30739213733524967</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.38946740011335984</v>
+        <v>-0.2732284379537059</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.3487964739187561</v>
+        <v>-0.24304831671318514</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.3105875753869454</v>
+        <v>-0.21642280683680773</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.27607089542024743</v>
+        <v>-0.1927936072760605</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.24555193030782058</v>
+        <v>-0.17174789954051622</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.21863726526736843</v>
+        <v>-0.1529992023886798</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.19476361155547026</v>
+        <v>-0.1363035375182942</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.1735032721873021</v>
+        <v>-0.12143573222509886</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.15456258989112148</v>
+        <v>-0.10819405421923863</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.13769567393281962</v>
+        <v>-0.09639973161177845</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.12267553673932237</v>
+        <v>-0.08589386556035991</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.10929830306472504</v>
+        <v>-0.07653513384868633</v>
       </c>
       <c r="X2" t="n">
         <v>-0.09738331386666832</v>
@@ -732,73 +732,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>255.73511462376163</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>321.95143448794767</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>405.3128422404624</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>510.2586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>642.377564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>808.7054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>1018.0998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>1281.7117463963648</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>1613.5794881334648</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>2031.3762215610436</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>2557.3511462376164</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>3219.5143448794765</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>4053.1284224046235</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>5102.586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>6423.77564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>8087.054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>10180.998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>12817.117463963647</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>16135.794881334647</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>20313.762215610437</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>25573.511462376162</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>32195.143448794766</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>40531.284224046234</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -825,73 +825,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.6780035451093871</v>
+        <v>0.6620601714754395</v>
       </c>
       <c r="B1" t="n">
-        <v>0.6749461175501547</v>
+        <v>0.6505626840121809</v>
       </c>
       <c r="C1" t="n">
-        <v>0.6701889600617176</v>
+        <v>0.6336056581224231</v>
       </c>
       <c r="D1" t="n">
-        <v>0.6628646615276198</v>
+        <v>0.6094945823281599</v>
       </c>
       <c r="E1" t="n">
-        <v>0.651768401114398</v>
+        <v>0.5769215824638729</v>
       </c>
       <c r="F1" t="n">
-        <v>0.6353602025437127</v>
+        <v>0.5357950058130042</v>
       </c>
       <c r="G1" t="n">
-        <v>0.611941595076613</v>
+        <v>0.4879899796718412</v>
       </c>
       <c r="H1" t="n">
-        <v>0.5801406894464198</v>
+        <v>0.4372679686939071</v>
       </c>
       <c r="I1" t="n">
-        <v>0.5397228527912147</v>
+        <v>0.38798358561813634</v>
       </c>
       <c r="J1" t="n">
-        <v>0.4923760774110365</v>
+        <v>0.34333494751777305</v>
       </c>
       <c r="K1" t="n">
-        <v>0.4417317999298571</v>
+        <v>0.30446488399178273</v>
       </c>
       <c r="L1" t="n">
-        <v>0.39216563077399036</v>
+        <v>0.27086715494134694</v>
       </c>
       <c r="M1" t="n">
-        <v>0.34703297152007073</v>
+        <v>0.2414354130081037</v>
       </c>
       <c r="N1" t="n">
-        <v>0.3076577816377445</v>
+        <v>0.21527283600258834</v>
       </c>
       <c r="O1" t="n">
-        <v>0.2736392115064102</v>
+        <v>0.191891692191693</v>
       </c>
       <c r="P1" t="n">
-        <v>0.24388318583384377</v>
+        <v>0.17102064707709128</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.2174577390229035</v>
+        <v>0.1524189225942747</v>
       </c>
       <c r="R1" t="n">
-        <v>0.19384422092764464</v>
+        <v>0.13584293213604465</v>
       </c>
       <c r="S1" t="n">
-        <v>0.17276188286383312</v>
+        <v>0.12106987603723493</v>
       </c>
       <c r="T1" t="n">
-        <v>0.15397045224501069</v>
+        <v>0.10790337975077943</v>
       </c>
       <c r="U1" t="n">
-        <v>0.13722562005399416</v>
+        <v>0.09616880581582428</v>
       </c>
       <c r="V1" t="n">
-        <v>0.1223022025198518</v>
+        <v>0.08571041012264848</v>
       </c>
       <c r="W1" t="n">
-        <v>0.10900168593813891</v>
+        <v>0.07638939259545234</v>
       </c>
       <c r="X1" t="n">
         <v>0.09714766613861074</v>
@@ -905,73 +905,73 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.9332593614757376</v>
+        <v>-1.0234776861836017</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.558548420410853</v>
+        <v>-0.8555266245950695</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.2663366098327442</v>
+        <v>-0.7296541648515572</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.0406010014537648</v>
+        <v>-0.636594875425446</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.8684701931799957</v>
+        <v>-0.5676289141299476</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.7392805209131901</v>
+        <v>-0.5143638350721731</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.6436891549437747</v>
+        <v>-0.4693257465930946</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5729468017384688</v>
+        <v>-0.4271925468626052</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5186214315905305</v>
+        <v>-0.38570257043589723</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.47311354929699656</v>
+        <v>-0.3452513416945064</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.43086176183303493</v>
+        <v>-0.3073637894666008</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.3893292219190966</v>
+        <v>-0.2732112593009148</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.3487296703121036</v>
+        <v>-0.24303373292254113</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.3105573772106259</v>
+        <v>-0.21641045118219765</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.2760532578599725</v>
+        <v>-0.19278443423429853</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.24553719618234937</v>
+        <v>-0.17174156417677272</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.21862466168742956</v>
+        <v>-0.1529947910870565</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.19475415401170873</v>
+        <v>-0.13630040865650125</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.17349672439252506</v>
+        <v>-0.12143351335394242</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.15455804061528716</v>
+        <v>-0.10819248380917473</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.1376924495967835</v>
+        <v>-0.09639861988328266</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.12267324945284222</v>
+        <v>-0.08589307850776387</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.10929668418116344</v>
+        <v>-0.07653457665885045</v>
       </c>
       <c r="X2" t="n">
         <v>-0.09738216784779237</v>
@@ -985,73 +985,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>255.73511462376163</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>321.95143448794767</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>405.3128422404624</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>510.2586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>642.377564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>808.7054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>1018.0998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>1281.7117463963648</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>1613.5794881334648</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>2031.3762215610436</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>2557.3511462376164</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>3219.5143448794765</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>4053.1284224046235</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>5102.586368230384</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>6423.77564483974</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>8087.054398953212</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>10180.998289404004</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>12817.117463963647</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>16135.794881334647</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>20313.762215610437</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>25573.511462376162</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>32195.143448794766</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>40531.284224046234</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>

--- a/lin_R1_by_R2 (1 by 1.1)100.xlsx
+++ b/lin_R1_by_R2 (1 by 1.1)100.xlsx
@@ -226,73 +226,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>520.6987464315688</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>655.5208837720694</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>825.2518985424289</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1038.9305862064455</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1307.936116065505</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1646.5940135182295</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2072.9390465262477</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2609.675642772265</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>3285.3869832262812</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>4136.057160761343</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>5206.987464315687</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>6555.208837720694</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>8252.518985424289</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>10389.305862064455</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>13079.36116065505</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>16465.940135182296</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>20729.390465262477</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>26096.756427722645</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>32853.86983226281</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>41360.57160761343</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>52069.87464315688</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>65552.08837720694</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>82525.18985424288</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -479,73 +479,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>520.6987464315688</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>655.5208837720694</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>825.2518985424289</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1038.9305862064455</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1307.936116065505</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1646.5940135182295</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2072.9390465262477</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2609.675642772265</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>3285.3869832262812</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>4136.057160761343</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>5206.987464315687</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>6555.208837720694</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>8252.518985424289</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>10389.305862064455</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>13079.36116065505</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>16465.940135182296</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>20729.390465262477</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>26096.756427722645</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>32853.86983226281</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>41360.57160761343</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>52069.87464315688</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>65552.08837720694</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>82525.18985424288</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -732,73 +732,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>520.6987464315688</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>655.5208837720694</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>825.2518985424289</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1038.9305862064455</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1307.936116065505</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1646.5940135182295</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2072.9390465262477</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2609.675642772265</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>3285.3869832262812</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>4136.057160761343</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>5206.987464315687</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>6555.208837720694</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>8252.518985424289</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>10389.305862064455</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>13079.36116065505</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>16465.940135182296</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>20729.390465262477</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>26096.756427722645</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>32853.86983226281</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>41360.57160761343</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>52069.87464315688</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>65552.08837720694</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>82525.18985424288</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>
@@ -985,73 +985,73 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>520.6987464315688</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>655.5208837720694</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>825.2518985424289</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>1038.9305862064455</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1307.936116065505</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1646.5940135182295</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>2072.9390465262477</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2609.675642772265</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>3285.3869832262812</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>4136.057160761343</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>5206.987464315687</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>6555.208837720694</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>8252.518985424289</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>10389.305862064455</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>13079.36116065505</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>16465.940135182296</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>20729.390465262477</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>26096.756427722645</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>32853.86983226281</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>41360.57160761343</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>52069.87464315688</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>65552.08837720694</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>82525.18985424288</v>
       </c>
       <c r="X3" t="n">
         <v>51025.86368230384</v>

--- a/lin_R1_by_R2 (1 by 1.1)100.xlsx
+++ b/lin_R1_by_R2 (1 by 1.1)100.xlsx
@@ -66,242 +66,359 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.6620618913957012</v>
+        <v>0.6833144430536224</v>
       </c>
       <c r="B1" t="n">
-        <v>0.6505673495254968</v>
+        <v>0.683303395027594</v>
       </c>
       <c r="C1" t="n">
-        <v>0.6336135807193332</v>
+        <v>0.6832858862503405</v>
       </c>
       <c r="D1" t="n">
-        <v>0.6095049878329413</v>
+        <v>0.6832581396318822</v>
       </c>
       <c r="E1" t="n">
-        <v>0.5769327542589086</v>
+        <v>0.6832141715469221</v>
       </c>
       <c r="F1" t="n">
-        <v>0.5358048986675225</v>
+        <v>0.6831445052638582</v>
       </c>
       <c r="G1" t="n">
-        <v>0.48799691298240233</v>
+        <v>0.6830341379293842</v>
       </c>
       <c r="H1" t="n">
-        <v>0.43727108711568413</v>
+        <v>0.6828593336531668</v>
       </c>
       <c r="I1" t="n">
-        <v>0.38798306024481477</v>
+        <v>0.6825825789409812</v>
       </c>
       <c r="J1" t="n">
-        <v>0.34333198380109325</v>
+        <v>0.6821446826935674</v>
       </c>
       <c r="K1" t="n">
-        <v>0.3044613370309847</v>
+        <v>0.6814524925169</v>
       </c>
       <c r="L1" t="n">
-        <v>0.2708645955813398</v>
+        <v>0.6803600140976138</v>
       </c>
       <c r="M1" t="n">
-        <v>0.24143427837525736</v>
+        <v>0.6786399341807116</v>
       </c>
       <c r="N1" t="n">
-        <v>0.21527256557307695</v>
+        <v>0.6759420068700573</v>
       </c>
       <c r="O1" t="n">
-        <v>0.19189161660829765</v>
+        <v>0.6717355006333722</v>
       </c>
       <c r="P1" t="n">
-        <v>0.1710205371740332</v>
+        <v>0.6652374332133079</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.1524188242315106</v>
+        <v>0.6553417062849897</v>
       </c>
       <c r="R1" t="n">
-        <v>0.13584287440494258</v>
+        <v>0.6405939378506776</v>
       </c>
       <c r="S1" t="n">
-        <v>0.12106984180312017</v>
+        <v>0.6193055839624828</v>
       </c>
       <c r="T1" t="n">
-        <v>0.1079033577223928</v>
+        <v>0.5899421578433364</v>
       </c>
       <c r="U1" t="n">
-        <v>0.09616879188342457</v>
+        <v>0.5518583470736895</v>
       </c>
       <c r="V1" t="n">
-        <v>0.08571040133391432</v>
+        <v>0.5061542268774594</v>
       </c>
       <c r="W1" t="n">
-        <v>0.07638938704469996</v>
+        <v>0.45598750875486005</v>
       </c>
       <c r="X1" t="n">
-        <v>0.09714765162731742</v>
+        <v>0.40570408047898</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.08658280721065996</v>
+        <v>0.3591018368413082</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.07716691688546864</v>
+        <v>0.3180967255069314</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>0.28267985445087906</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>0.25184295654380284</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>0.2245551425424235</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>0.2001886435093871</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>0.17842169466805835</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>0.15901380642175542</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>0.1417200047304506</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>0.12630785096507435</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>0.11257172126010104</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>0.10032944894848503</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>0.08941857416560708</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>0.07969428764732922</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>0.07102753736181025</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.0234711234280387</v>
+        <v>-31.833994698710054</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.8555195968527618</v>
+        <v>-25.288037337914346</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.7296483028755227</v>
+        <v>-20.08876006845991</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.636591894870739</v>
+        <v>-15.959282306841706</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.5676298620093382</v>
+        <v>-12.679694085327062</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5143686497408237</v>
+        <v>-10.075344935857562</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.4693333165984294</v>
+        <v>-8.007542899745554</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.42720110496445346</v>
+        <v>-6.366168245057515</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.385710186130767</v>
+        <v>-5.063808334156707</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.34525649242465384</v>
+        <v>-4.031100884927888</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.3073660059367325</v>
+        <v>-3.2130368192553194</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.27321136084862335</v>
+        <v>-2.566024221717752</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.24303313631056625</v>
+        <v>-2.0555540110555923</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.21641008823183536</v>
+        <v>-1.654337341173082</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.19278439851889184</v>
+        <v>-1.3408054217315168</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.1717416084729174</v>
+        <v>-1.0978751566694562</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1529948024528272</v>
+        <v>-0.9118911414137464</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.13630040651672826</v>
+        <v>-0.7716648046305855</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.12143351332104978</v>
+        <v>-0.6675678452122997</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.10819248412755557</v>
+        <v>-0.5907388088908595</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.09639861998428484</v>
+        <v>-0.5326422555342818</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.0858930785698061</v>
+        <v>-0.4853425622590996</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.07653457669386723</v>
+        <v>-0.44257480378888714</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.09738216795609927</v>
+        <v>-0.4009169979338193</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.08676921200971342</v>
+        <v>-0.3599259108712165</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.07731507002615914</v>
+        <v>-0.32091393891260916</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.28530686930884486</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.25369146311442486</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.2258280171648904</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.2011572902712409</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.17920224375433563</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.15964021356877078</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.14221798693883173</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.1267035420285959</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.11288631139983024</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.1005795294622689</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.08961735408629516</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.07985227945254349</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.0711531022563422</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>520.6987464315688</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="B3" t="n">
-        <v>655.5208837720694</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="C3" t="n">
-        <v>825.2518985424289</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="D3" t="n">
-        <v>1038.9305862064455</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>1307.936116065505</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="F3" t="n">
-        <v>1646.5940135182295</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="G3" t="n">
-        <v>2072.9390465262477</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>2609.675642772265</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="I3" t="n">
-        <v>3285.3869832262812</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="J3" t="n">
-        <v>4136.057160761343</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="K3" t="n">
-        <v>5206.987464315687</v>
+        <v>151.285930408472</v>
       </c>
       <c r="L3" t="n">
-        <v>6555.208837720694</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="M3" t="n">
-        <v>8252.518985424289</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>10389.305862064455</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>13079.36116065505</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="P3" t="n">
-        <v>16465.940135182296</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="Q3" t="n">
-        <v>20729.390465262477</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>26096.756427722645</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="S3" t="n">
-        <v>32853.86983226281</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="T3" t="n">
-        <v>41360.57160761343</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>52069.87464315688</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="V3" t="n">
-        <v>65552.08837720694</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="W3" t="n">
-        <v>82525.18985424288</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="X3" t="n">
-        <v>51025.86368230384</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>64237.756448397406</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="Z3" t="n">
-        <v>80870.54398953212</v>
+        <v>4784.081180284991</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6022.801369947008</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7582.257694815012</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9545.496890774482</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12017.068603998207</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15128.593040847201</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>19045.770223814936</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>23977.204121953306</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>30185.51157290287</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>38001.307587134346</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>47840.811802849916</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>60228.01369947008</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -319,242 +436,359 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.6623590192316213</v>
+        <v>0.6833149320930352</v>
       </c>
       <c r="B1" t="n">
-        <v>0.6509192319999827</v>
+        <v>0.6833041697784872</v>
       </c>
       <c r="C1" t="n">
-        <v>0.6339931624961225</v>
+        <v>0.6832871133338054</v>
       </c>
       <c r="D1" t="n">
-        <v>0.6098708480174148</v>
+        <v>0.6832600823865842</v>
       </c>
       <c r="E1" t="n">
-        <v>0.5772383443395773</v>
+        <v>0.683217245489547</v>
       </c>
       <c r="F1" t="n">
-        <v>0.5360124810905272</v>
+        <v>0.68314936433119</v>
       </c>
       <c r="G1" t="n">
-        <v>0.4880915018094468</v>
+        <v>0.6830418070595345</v>
       </c>
       <c r="H1" t="n">
-        <v>0.4372672983703952</v>
+        <v>0.6828714088342848</v>
       </c>
       <c r="I1" t="n">
-        <v>0.38791918638959527</v>
+        <v>0.682601519835295</v>
       </c>
       <c r="J1" t="n">
-        <v>0.34325283733531775</v>
+        <v>0.6821742184080566</v>
       </c>
       <c r="K1" t="n">
-        <v>0.30439914638455035</v>
+        <v>0.6814981314623886</v>
       </c>
       <c r="L1" t="n">
-        <v>0.27082920312469844</v>
+        <v>0.6804295617222121</v>
       </c>
       <c r="M1" t="n">
-        <v>0.24141807102015836</v>
+        <v>0.6787437324740614</v>
       </c>
       <c r="N1" t="n">
-        <v>0.2152640868279261</v>
+        <v>0.6760923045004033</v>
       </c>
       <c r="O1" t="n">
-        <v>0.19188500509881268</v>
+        <v>0.6719440993514688</v>
       </c>
       <c r="P1" t="n">
-        <v>0.17101512891295342</v>
+        <v>0.6655110237804642</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.1524149236084238</v>
+        <v>0.6556756800447333</v>
       </c>
       <c r="R1" t="n">
-        <v>0.13584016894324524</v>
+        <v>0.640967518569173</v>
       </c>
       <c r="S1" t="n">
-        <v>0.12106792742278914</v>
+        <v>0.619681900851653</v>
       </c>
       <c r="T1" t="n">
-        <v>0.10790199796032976</v>
+        <v>0.590275104519637</v>
       </c>
       <c r="U1" t="n">
-        <v>0.09616782834199232</v>
+        <v>0.5521051889016588</v>
       </c>
       <c r="V1" t="n">
-        <v>0.08570971850715113</v>
+        <v>0.5062902695868989</v>
       </c>
       <c r="W1" t="n">
-        <v>0.07638890319222803</v>
+        <v>0.4560164292414978</v>
       </c>
       <c r="X1" t="n">
-        <v>0.09714665844263781</v>
+        <v>0.4056569989348153</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.08658210338300029</v>
+        <v>0.3590235422598163</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.0771664181457734</v>
+        <v>0.31802592156750936</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>0.2826348240844624</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>0.2518211214791251</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>0.22454488300526892</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>0.20018160295774604</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>0.17841578645707645</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>0.15900935946201886</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>0.14171691486440116</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>0.12630568038152143</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>0.11257017845099888</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>0.10032835520479526</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>0.08941779911713363</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>0.07969373841834057</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>0.07102714820473018</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.0233373967651596</v>
+        <v>-31.83398174706538</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.855449225798465</v>
+        <v>-25.288021042806687</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.7296678425017353</v>
+        <v>-20.088739574161682</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6367137814115413</v>
+        <v>-15.9592565459466</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.5678442417357275</v>
+        <v>-12.679661733695081</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5146417101552989</v>
+        <v>-10.075304365409377</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.4696150418526109</v>
+        <v>-8.0074921376097</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.4274417313307885</v>
+        <v>-6.366104957935239</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3858784637437676</v>
+        <v>-5.063729876185874</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.34534956214843604</v>
+        <v>-4.03100448110997</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.30740485274222584</v>
+        <v>-3.2129200084473397</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.2732247737632131</v>
+        <v>-2.565885744440386</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.24304125762503948</v>
+        <v>-2.055395348492209</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.21641902122927997</v>
+        <v>-1.6541649600698765</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.19279252669734578</v>
+        <v>-1.3406332474168614</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.1717474005880281</v>
+        <v>-1.0977258402340269</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.15299867873678816</v>
+        <v>-0.9117939580117154</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.13630312846755066</v>
+        <v>-0.7716488527602882</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.1214354546341068</v>
+        <v>-0.6676519245563338</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.10819385841617297</v>
+        <v>-0.5909218865831233</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.09639959259119091</v>
+        <v>-0.5328989684925737</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.08589376718224656</v>
+        <v>-0.4856273213141762</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.0765350642003289</v>
+        <v>-0.4428355076583488</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.09738317055654763</v>
+        <v>-0.40111378632702704</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.0867699218621688</v>
+        <v>-0.36004520701982035</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.07731557257012274</v>
+        <v>-0.32096938552776577</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.2853265730762831</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.2537001261869885</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.22583663889552844</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.20116600579686017</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.17920892343680644</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.1596446901555661</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.14222107195049188</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.12670574243478866</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.11288787246548851</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.10058063383510617</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.08961813598378801</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.07985283300683317</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.07115349414851423</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>520.6987464315688</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="B3" t="n">
-        <v>655.5208837720694</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="C3" t="n">
-        <v>825.2518985424289</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="D3" t="n">
-        <v>1038.9305862064455</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>1307.936116065505</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="F3" t="n">
-        <v>1646.5940135182295</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="G3" t="n">
-        <v>2072.9390465262477</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>2609.675642772265</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="I3" t="n">
-        <v>3285.3869832262812</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="J3" t="n">
-        <v>4136.057160761343</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="K3" t="n">
-        <v>5206.987464315687</v>
+        <v>151.285930408472</v>
       </c>
       <c r="L3" t="n">
-        <v>6555.208837720694</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="M3" t="n">
-        <v>8252.518985424289</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>10389.305862064455</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>13079.36116065505</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="P3" t="n">
-        <v>16465.940135182296</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="Q3" t="n">
-        <v>20729.390465262477</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>26096.756427722645</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="S3" t="n">
-        <v>32853.86983226281</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="T3" t="n">
-        <v>41360.57160761343</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>52069.87464315688</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="V3" t="n">
-        <v>65552.08837720694</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="W3" t="n">
-        <v>82525.18985424288</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="X3" t="n">
-        <v>51025.86368230384</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>64237.756448397406</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="Z3" t="n">
-        <v>80870.54398953212</v>
+        <v>4784.081180284991</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6022.801369947008</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7582.257694815012</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9545.496890774482</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12017.068603998207</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15128.593040847201</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>19045.770223814936</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>23977.204121953306</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>30185.51157290287</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>38001.307587134346</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>47840.811802849916</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>60228.01369947008</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -572,242 +806,359 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.6626288086576543</v>
+        <v>0.6839810487161517</v>
       </c>
       <c r="B1" t="n">
-        <v>0.6510734439389467</v>
+        <v>0.6839699649631982</v>
       </c>
       <c r="C1" t="n">
-        <v>0.6340323270509793</v>
+        <v>0.6839523994931841</v>
       </c>
       <c r="D1" t="n">
-        <v>0.6098092396211247</v>
+        <v>0.6839245628489585</v>
       </c>
       <c r="E1" t="n">
-        <v>0.577103874047235</v>
+        <v>0.6838804516483076</v>
       </c>
       <c r="F1" t="n">
-        <v>0.5358447092372468</v>
+        <v>0.6838105574591098</v>
       </c>
       <c r="G1" t="n">
-        <v>0.4879350081995176</v>
+        <v>0.683699826229861</v>
       </c>
       <c r="H1" t="n">
-        <v>0.437157928104427</v>
+        <v>0.6835244385952296</v>
       </c>
       <c r="I1" t="n">
-        <v>0.38786915194091204</v>
+        <v>0.6832467431780982</v>
       </c>
       <c r="J1" t="n">
-        <v>0.3432476885928162</v>
+        <v>0.6828073173503164</v>
       </c>
       <c r="K1" t="n">
-        <v>0.30441159057868933</v>
+        <v>0.6821126128764592</v>
       </c>
       <c r="L1" t="n">
-        <v>0.27083854381464134</v>
+        <v>0.6810159486272069</v>
       </c>
       <c r="M1" t="n">
-        <v>0.24141914015920812</v>
+        <v>0.6792888160694056</v>
       </c>
       <c r="N1" t="n">
-        <v>0.21526146312992592</v>
+        <v>0.6765789302161659</v>
       </c>
       <c r="O1" t="n">
-        <v>0.19188298181448402</v>
+        <v>0.672352265287318</v>
       </c>
       <c r="P1" t="n">
-        <v>0.17101426770488343</v>
+        <v>0.665821017252664</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.15241444048829866</v>
+        <v>0.6558730420204999</v>
       </c>
       <c r="R1" t="n">
-        <v>0.1358397806094057</v>
+        <v>0.6410480899177072</v>
       </c>
       <c r="S1" t="n">
-        <v>0.12106764500369646</v>
+        <v>0.6196548234581271</v>
       </c>
       <c r="T1" t="n">
-        <v>0.10790180079017041</v>
+        <v>0.590163380326181</v>
       </c>
       <c r="U1" t="n">
-        <v>0.09616768873484165</v>
+        <v>0.5519445246940333</v>
       </c>
       <c r="V1" t="n">
-        <v>0.08570961969833706</v>
+        <v>0.5061246313898985</v>
       </c>
       <c r="W1" t="n">
-        <v>0.07638883327738855</v>
+        <v>0.4558868061723147</v>
       </c>
       <c r="X1" t="n">
-        <v>0.0971465145407068</v>
+        <v>0.4055855470354006</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.08658200152011541</v>
+        <v>0.35900481733387885</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.07716634607156307</v>
+        <v>0.31803500803071805</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>0.2826467328331695</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>0.2518249776138673</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>0.22454293686652282</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>0.2001791180959324</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>0.1784145853342374</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>0.15900880484497254</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>0.14171649321073174</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>0.12630535888059702</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>0.11256995387206775</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>0.10032819675357335</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>0.08941768689357973</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>0.07969365901810484</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>0.07102709201752254</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.0237835606582266</v>
+        <v>-31.834003960722786</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.8558937727680557</v>
+        <v>-25.288048998682477</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.7300786614783399</v>
+        <v>-20.088774749660583</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6370589322823526</v>
+        <v>-15.959300791687719</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.5680977299025978</v>
+        <v>-12.67971736094017</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5147901248561663</v>
+        <v>-10.075374247121466</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.46966501758118157</v>
+        <v>-8.007579818038696</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.4274227140838451</v>
+        <v>-6.366214756410881</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.38583304966735493</v>
+        <v>-5.063866952766702</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.3453136106924788</v>
+        <v>-4.031174798997971</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.30739213733524967</v>
+        <v>-3.2131300745675424</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.2732284379537059</v>
+        <v>-2.5661419373939216</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.24304831671318514</v>
+        <v>-2.055702585697488</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.21642280683680773</v>
+        <v>-1.654524518792074</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.1927936072760605</v>
+        <v>-1.3410399263880417</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.17174789954051622</v>
+        <v>-1.0981654248387396</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1529992023886798</v>
+        <v>-0.9122426625174876</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1363035375182942</v>
+        <v>-0.7720759264140572</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.12143573222509886</v>
+        <v>-0.668024699094787</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.10819405421923863</v>
+        <v>-0.5912114847994331</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.09639973161177845</v>
+        <v>-0.5330864770204721</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.08589386556035991</v>
+        <v>-0.48571123863102983</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.07653513384868633</v>
+        <v>-0.4428372428911825</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.09738331386666832</v>
+        <v>-0.40107309748837705</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.08677002327592188</v>
+        <v>-0.36000283844689407</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.07731564436681379</v>
+        <v>-0.3209480635521584</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.28532575898455476</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.2537071917850213</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.2258418416036143</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.201167795927973</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.17920947930060144</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.15964521313223873</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.1422215354970332</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.12670606190552072</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.11288809436074128</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.10058079165725453</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.0896182477003</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.0798529120906708</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.0711535501362836</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>520.6987464315688</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="B3" t="n">
-        <v>655.5208837720694</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="C3" t="n">
-        <v>825.2518985424289</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="D3" t="n">
-        <v>1038.9305862064455</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>1307.936116065505</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="F3" t="n">
-        <v>1646.5940135182295</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="G3" t="n">
-        <v>2072.9390465262477</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>2609.675642772265</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="I3" t="n">
-        <v>3285.3869832262812</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="J3" t="n">
-        <v>4136.057160761343</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="K3" t="n">
-        <v>5206.987464315687</v>
+        <v>151.285930408472</v>
       </c>
       <c r="L3" t="n">
-        <v>6555.208837720694</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="M3" t="n">
-        <v>8252.518985424289</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>10389.305862064455</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>13079.36116065505</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="P3" t="n">
-        <v>16465.940135182296</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="Q3" t="n">
-        <v>20729.390465262477</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>26096.756427722645</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="S3" t="n">
-        <v>32853.86983226281</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="T3" t="n">
-        <v>41360.57160761343</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>52069.87464315688</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="V3" t="n">
-        <v>65552.08837720694</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="W3" t="n">
-        <v>82525.18985424288</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="X3" t="n">
-        <v>51025.86368230384</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>64237.756448397406</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="Z3" t="n">
-        <v>80870.54398953212</v>
+        <v>4784.081180284991</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6022.801369947008</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7582.257694815012</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9545.496890774482</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12017.068603998207</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15128.593040847201</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>19045.770223814936</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>23977.204121953306</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>30185.51157290287</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>38001.307587134346</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>47840.811802849916</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>60228.01369947008</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
@@ -825,242 +1176,359 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.6620601714754395</v>
+        <v>0.683314453383881</v>
       </c>
       <c r="B1" t="n">
-        <v>0.6505626840121809</v>
+        <v>0.6833034113752134</v>
       </c>
       <c r="C1" t="n">
-        <v>0.6336056581224231</v>
+        <v>0.6832859120975423</v>
       </c>
       <c r="D1" t="n">
-        <v>0.6094945823281599</v>
+        <v>0.683258180441554</v>
       </c>
       <c r="E1" t="n">
-        <v>0.5769215824638729</v>
+        <v>0.6832142358372826</v>
       </c>
       <c r="F1" t="n">
-        <v>0.5357950058130042</v>
+        <v>0.6831446061877612</v>
       </c>
       <c r="G1" t="n">
-        <v>0.4879899796718412</v>
+        <v>0.6830342954742005</v>
       </c>
       <c r="H1" t="n">
-        <v>0.4372679686939071</v>
+        <v>0.6828595773974406</v>
       </c>
       <c r="I1" t="n">
-        <v>0.38798358561813634</v>
+        <v>0.6825829507102071</v>
       </c>
       <c r="J1" t="n">
-        <v>0.34333494751777305</v>
+        <v>0.6821452369127834</v>
       </c>
       <c r="K1" t="n">
-        <v>0.30446488399178273</v>
+        <v>0.681453288677896</v>
       </c>
       <c r="L1" t="n">
-        <v>0.27086715494134694</v>
+        <v>0.6803610898390015</v>
       </c>
       <c r="M1" t="n">
-        <v>0.2414354130081037</v>
+        <v>0.6786412411476745</v>
       </c>
       <c r="N1" t="n">
-        <v>0.21527283600258834</v>
+        <v>0.6759432963720472</v>
       </c>
       <c r="O1" t="n">
-        <v>0.191891692191693</v>
+        <v>0.6717361882497748</v>
       </c>
       <c r="P1" t="n">
-        <v>0.17102064707709128</v>
+        <v>0.6652365648619081</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.1524189225942747</v>
+        <v>0.6553382095568573</v>
       </c>
       <c r="R1" t="n">
-        <v>0.13584293213604465</v>
+        <v>0.6405871843111527</v>
       </c>
       <c r="S1" t="n">
-        <v>0.12106987603723493</v>
+        <v>0.6192959323012226</v>
       </c>
       <c r="T1" t="n">
-        <v>0.10790337975077943</v>
+        <v>0.5899310314625812</v>
       </c>
       <c r="U1" t="n">
-        <v>0.09616880581582428</v>
+        <v>0.5518477558664726</v>
       </c>
       <c r="V1" t="n">
-        <v>0.08571041012264848</v>
+        <v>0.5061460551140177</v>
       </c>
       <c r="W1" t="n">
-        <v>0.07638939259545234</v>
+        <v>0.4559829501270907</v>
       </c>
       <c r="X1" t="n">
-        <v>0.09714766613861074</v>
+        <v>0.40570335334933255</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.08658281636178587</v>
+        <v>0.35910410004722415</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.07716692266531705</v>
+        <v>0.3181002798649208</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>0.28268289760499854</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>0.25184458690167133</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>0.2245556389044</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>0.2001887385256992</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>0.17842179108520345</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>0.15901391653049954</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>0.14172007631045244</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>0.1263078917792673</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>0.11257174717092389</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>0.10032946546537429</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>0.08941858457328207</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>0.07969429422091602</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>0.07102754151245666</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.0234776861836017</v>
+        <v>-31.833994699351628</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.8555266245950695</v>
+        <v>-25.28803733919335</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.7296541648515572</v>
+        <v>-20.08876007100838</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.636594875425446</v>
+        <v>-15.959282311915599</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.5676289141299476</v>
+        <v>-12.679694095416238</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5143638350721731</v>
+        <v>-10.075344955879435</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.4693257465930946</v>
+        <v>-8.007542939354007</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.4271925468626052</v>
+        <v>-6.366168323026169</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.38570257043589723</v>
+        <v>-5.063808486448687</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.3452513416945064</v>
+        <v>-4.031101178806487</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.3073637894666008</v>
+        <v>-3.2130373758175974</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.2732112593009148</v>
+        <v>-2.566025246014252</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.24303373292254113</v>
+        <v>-2.0555558170575403</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.21641045118219765</v>
+        <v>-1.6543403325209465</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.19278443423429853</v>
+        <v>-1.3408099588997977</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.17174156417677272</v>
+        <v>-1.0978812638287918</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1529947910870565</v>
+        <v>-0.911898160156305</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.13630040865650125</v>
+        <v>-0.7716713074542697</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.12143351335394242</v>
+        <v>-0.6675720574364049</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.10819248380917473</v>
+        <v>-0.5907393615073406</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.09639861988328266</v>
+        <v>-0.5326387834326474</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.08589307850776387</v>
+        <v>-0.48533582481979165</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.07653457665885045</v>
+        <v>-0.44256638234508433</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.09738216784779237</v>
+        <v>-0.4009088228433321</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.08676921194491082</v>
+        <v>-0.3599197301680629</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.07731506998929139</v>
+        <v>-0.32091067481197694</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.28530614762652967</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.25369195596920285</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.22582851632199813</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.2011574208943856</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.17920220427941722</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.15964018915176445</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.1422179876136728</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.1267035429034581</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.11288631099592422</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.1005795293176052</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.08961735401279405</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.07985227940905365</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.07115310223200691</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>520.6987464315688</v>
+        <v>15.128593040847202</v>
       </c>
       <c r="B3" t="n">
-        <v>655.5208837720694</v>
+        <v>19.045770223814934</v>
       </c>
       <c r="C3" t="n">
-        <v>825.2518985424289</v>
+        <v>23.977204121953307</v>
       </c>
       <c r="D3" t="n">
-        <v>1038.9305862064455</v>
+        <v>30.18551157290287</v>
       </c>
       <c r="E3" t="n">
-        <v>1307.936116065505</v>
+        <v>38.00130758713434</v>
       </c>
       <c r="F3" t="n">
-        <v>1646.5940135182295</v>
+        <v>47.84081180284991</v>
       </c>
       <c r="G3" t="n">
-        <v>2072.9390465262477</v>
+        <v>60.22801369947008</v>
       </c>
       <c r="H3" t="n">
-        <v>2609.675642772265</v>
+        <v>75.82257694815011</v>
       </c>
       <c r="I3" t="n">
-        <v>3285.3869832262812</v>
+        <v>95.45496890774481</v>
       </c>
       <c r="J3" t="n">
-        <v>4136.057160761343</v>
+        <v>120.17068603998207</v>
       </c>
       <c r="K3" t="n">
-        <v>5206.987464315687</v>
+        <v>151.285930408472</v>
       </c>
       <c r="L3" t="n">
-        <v>6555.208837720694</v>
+        <v>190.45770223814935</v>
       </c>
       <c r="M3" t="n">
-        <v>8252.518985424289</v>
+        <v>239.77204121953307</v>
       </c>
       <c r="N3" t="n">
-        <v>10389.305862064455</v>
+        <v>301.8551157290287</v>
       </c>
       <c r="O3" t="n">
-        <v>13079.36116065505</v>
+        <v>380.01307587134346</v>
       </c>
       <c r="P3" t="n">
-        <v>16465.940135182296</v>
+        <v>478.40811802849913</v>
       </c>
       <c r="Q3" t="n">
-        <v>20729.390465262477</v>
+        <v>602.2801369947008</v>
       </c>
       <c r="R3" t="n">
-        <v>26096.756427722645</v>
+        <v>758.2257694815012</v>
       </c>
       <c r="S3" t="n">
-        <v>32853.86983226281</v>
+        <v>954.5496890774482</v>
       </c>
       <c r="T3" t="n">
-        <v>41360.57160761343</v>
+        <v>1201.7068603998207</v>
       </c>
       <c r="U3" t="n">
-        <v>52069.87464315688</v>
+        <v>1512.8593040847202</v>
       </c>
       <c r="V3" t="n">
-        <v>65552.08837720694</v>
+        <v>1904.5770223814934</v>
       </c>
       <c r="W3" t="n">
-        <v>82525.18985424288</v>
+        <v>2397.7204121953305</v>
       </c>
       <c r="X3" t="n">
-        <v>51025.86368230384</v>
+        <v>3018.551157290287</v>
       </c>
       <c r="Y3" t="n">
-        <v>64237.756448397406</v>
+        <v>3800.1307587134343</v>
       </c>
       <c r="Z3" t="n">
-        <v>80870.54398953212</v>
+        <v>4784.081180284991</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6022.801369947008</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7582.257694815012</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9545.496890774482</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12017.068603998207</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15128.593040847201</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>19045.770223814936</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>23977.204121953306</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>30185.51157290287</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>38001.307587134346</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>47840.811802849916</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>60228.01369947008</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>75822.57694815012</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>95454.96890774481</v>
       </c>
     </row>
   </sheetData>
